--- a/ElemSchoolData.xlsx
+++ b/ElemSchoolData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>chantilly montesorri</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Performance Score</t>
+  </si>
+  <si>
+    <t>Providence Spring</t>
+  </si>
+  <si>
+    <t>McKee Road</t>
+  </si>
+  <si>
+    <t>Polo Ridge</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B17" si="0">(0.8*C3)+(0.2*D3)</f>
+        <f t="shared" ref="B3:B20" si="0">(0.8*C3)+(0.2*D3)</f>
         <v>66.02000000000001</v>
       </c>
       <c r="C3" s="2">
@@ -1212,19 +1221,139 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>86.34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F18" s="2">
+        <v>91.8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>88.4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>514</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="J18" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="L18" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="M18" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>90.160000000000011</v>
+      </c>
+      <c r="C19" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>93.1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>95</v>
+      </c>
+      <c r="H19" s="2">
+        <v>932</v>
+      </c>
+      <c r="I19" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>87.76</v>
+      </c>
+      <c r="C20" s="2">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2">
+        <v>82.8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2">
+        <v>93.2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1021</v>
+      </c>
+      <c r="I20" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="J20" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ElemSchoolData.xlsx
+++ b/ElemSchoolData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>chantilly montesorri</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Polo Ridge</t>
+  </si>
+  <si>
+    <t>Elon Park</t>
+  </si>
+  <si>
+    <t>Hawk Ridge</t>
+  </si>
+  <si>
+    <t>Weddington Elementary</t>
+  </si>
+  <si>
+    <t>Olde Providence</t>
   </si>
 </sst>
 </file>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="O19" sqref="O19:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B20" si="0">(0.8*C3)+(0.2*D3)</f>
+        <f t="shared" ref="B3:B24" si="0">(0.8*C3)+(0.2*D3)</f>
         <v>66.02000000000001</v>
       </c>
       <c r="C3" s="2">
@@ -1355,6 +1367,186 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>88.2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2">
+        <v>83.9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>92</v>
+      </c>
+      <c r="G21" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I21" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="K21" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="M21" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>86.060000000000016</v>
+      </c>
+      <c r="C22" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>82.2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>86.3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>95</v>
+      </c>
+      <c r="H22" s="2">
+        <v>881</v>
+      </c>
+      <c r="I22" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>59.1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L22" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M22" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>94.039999999999992</v>
+      </c>
+      <c r="C23" s="2">
+        <v>95.1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>89.8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>93</v>
+      </c>
+      <c r="F23" s="2">
+        <v>95</v>
+      </c>
+      <c r="G23" s="2">
+        <v>95</v>
+      </c>
+      <c r="H23" s="2">
+        <v>851</v>
+      </c>
+      <c r="I23" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J23" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="L23" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>79.88</v>
+      </c>
+      <c r="C24" s="2">
+        <v>81.8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F24" s="2">
+        <v>85.3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" s="2">
+        <v>715</v>
+      </c>
+      <c r="I24" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J24" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="K24" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
